--- a/CPL/CPL.xlsx
+++ b/CPL/CPL.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Bottom" localSheetId="0">Sheet1!$A$48:$F$76</definedName>
-    <definedName name="Top" localSheetId="0">Sheet1!$A$6:$F$44</definedName>
+    <definedName name="Bottom" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="Bottom_1" localSheetId="0">Sheet1!$A$48:$F$77</definedName>
+    <definedName name="Top" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="Top_1" localSheetId="0">Sheet1!$A$6:$F$45</definedName>
   </definedNames>
   <calcPr calcId="140000" iterate="1" concurrentCalc="0"/>
   <extLst>
@@ -24,8 +26,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Bottom.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Bottom.txt" space="1" consecutive="1">
+  <connection id="1" name="Bottom.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Bottom.txt" space="1" consecutive="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -36,8 +38,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="Top.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Top.txt" space="1" consecutive="1">
+  <connection id="2" name="Top.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Top.txt" space="1" consecutive="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="121">
   <si>
     <t>FC-135</t>
   </si>
@@ -114,9 +116,6 @@
     <t>C19</t>
   </si>
   <si>
-    <t>104pF</t>
-  </si>
-  <si>
     <t>0603-CAP</t>
   </si>
   <si>
@@ -249,9 +248,6 @@
     <t>TSX-3225</t>
   </si>
   <si>
-    <t>U$1</t>
-  </si>
-  <si>
     <t>HDMID</t>
   </si>
   <si>
@@ -412,6 +408,15 @@
   </si>
   <si>
     <t>Bottom</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>U$9</t>
+  </si>
+  <si>
+    <t>R16</t>
   </si>
 </sst>
 </file>
@@ -468,8 +473,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -480,9 +493,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,11 +512,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bottom" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bottom_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Top" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Top_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -820,44 +841,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F76"/>
+  <dimension ref="A4:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="3" width="6.1640625" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="6" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1094,15 +1114,15 @@
         <v>270</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>40.409999999999997</v>
@@ -1114,7 +1134,7 @@
         <v>270</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1">
         <v>805</v>
@@ -1122,19 +1142,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>45.17</v>
+        <v>44.83</v>
       </c>
       <c r="C19" s="1">
-        <v>22.31</v>
+        <v>22.94</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="1">
         <v>805</v>
@@ -1142,7 +1162,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1">
         <v>23.79</v>
@@ -1154,7 +1174,7 @@
         <v>270</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>5</v>
@@ -1162,7 +1182,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>17.399999999999999</v>
@@ -1174,15 +1194,15 @@
         <v>270</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1">
         <v>31.86</v>
@@ -1194,7 +1214,7 @@
         <v>180</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1">
         <v>603</v>
@@ -1202,7 +1222,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>18.93</v>
@@ -1214,7 +1234,7 @@
         <v>270</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" s="1">
         <v>603</v>
@@ -1222,7 +1242,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1">
         <v>34.299999999999997</v>
@@ -1234,7 +1254,7 @@
         <v>180</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1">
         <v>603</v>
@@ -1242,7 +1262,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1">
         <v>22.48</v>
@@ -1254,15 +1274,15 @@
         <v>180</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1">
         <v>24.74</v>
@@ -1274,15 +1294,15 @@
         <v>270</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1">
         <v>35.32</v>
@@ -1294,15 +1314,15 @@
         <v>270</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1">
         <v>30.26</v>
@@ -1314,15 +1334,15 @@
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1">
         <v>37.81</v>
@@ -1334,15 +1354,15 @@
         <v>180</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1">
         <v>19.899999999999999</v>
@@ -1354,15 +1374,15 @@
         <v>180</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1">
         <v>19.89</v>
@@ -1374,15 +1394,15 @@
         <v>180</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1">
         <v>24.75</v>
@@ -1397,12 +1417,12 @@
         <v>180</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1">
         <v>24.78</v>
@@ -1417,12 +1437,12 @@
         <v>180</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1">
         <v>16.82</v>
@@ -1434,15 +1454,15 @@
         <v>180</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1">
         <v>34.11</v>
@@ -1454,15 +1474,15 @@
         <v>90</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="1">
         <v>16.32</v>
@@ -1477,112 +1497,112 @@
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1">
-        <v>32.270000000000003</v>
+        <v>20.98</v>
       </c>
       <c r="C37" s="1">
-        <v>23.8</v>
+        <v>21.84</v>
       </c>
       <c r="D37" s="1">
-        <v>90</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>55</v>
+        <v>270</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38" s="1">
-        <v>21.49</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="C38" s="1">
-        <v>19.28</v>
+        <v>23.8</v>
       </c>
       <c r="D38" s="1">
-        <v>180</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" s="1">
-        <v>25.05</v>
+        <v>21.76</v>
       </c>
       <c r="C39" s="1">
-        <v>37.94</v>
+        <v>19.28</v>
       </c>
       <c r="D39" s="1">
         <v>180</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>62</v>
+      <c r="E39" s="1">
+        <v>0</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B40" s="1">
-        <v>26.85</v>
+        <v>25.05</v>
       </c>
       <c r="C40" s="1">
-        <v>21.33</v>
+        <v>37.94</v>
       </c>
       <c r="D40" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1">
-        <v>46.16</v>
+        <v>26.85</v>
       </c>
       <c r="C41" s="1">
-        <v>17.170000000000002</v>
+        <v>21.33</v>
       </c>
       <c r="D41" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B42" s="1">
         <v>18.559999999999999</v>
@@ -1594,15 +1614,15 @@
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B43" s="1">
         <v>14.1</v>
@@ -1614,15 +1634,15 @@
         <v>270</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B44" s="1">
         <v>37.46</v>
@@ -1634,20 +1654,40 @@
         <v>180</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45.87</v>
+      </c>
+      <c r="C45" s="1">
+        <v>17.05</v>
+      </c>
+      <c r="D45" s="1">
+        <v>90</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B48" s="1">
         <v>36.67</v>
@@ -1667,7 +1707,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B49" s="1">
         <v>36.68</v>
@@ -1687,7 +1727,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B50" s="1">
         <v>36.69</v>
@@ -1707,7 +1747,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B51" s="1">
         <v>36.69</v>
@@ -1727,7 +1767,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B52" s="1">
         <v>33.64</v>
@@ -1747,7 +1787,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B53" s="1">
         <v>33.630000000000003</v>
@@ -1759,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>5</v>
@@ -1767,7 +1807,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B54" s="1">
         <v>33.619999999999997</v>
@@ -1787,7 +1827,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B55" s="1">
         <v>33.61</v>
@@ -1807,7 +1847,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B56" s="1">
         <v>22.19</v>
@@ -1827,7 +1867,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B57" s="1">
         <v>37.68</v>
@@ -1839,7 +1879,7 @@
         <v>270</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F57" s="1">
         <v>805</v>
@@ -1847,7 +1887,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B58" s="1">
         <v>25.03</v>
@@ -1859,15 +1899,15 @@
         <v>180</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B59" s="1">
         <v>25.72</v>
@@ -1879,27 +1919,27 @@
         <v>270</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B60" s="1">
-        <v>30.36</v>
+        <v>31.66</v>
       </c>
       <c r="C60" s="1">
-        <v>8.19</v>
+        <v>4.99</v>
       </c>
       <c r="D60" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F60" s="1">
         <v>603</v>
@@ -1907,7 +1947,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B61" s="1">
         <v>26.49</v>
@@ -1919,15 +1959,15 @@
         <v>90</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B62" s="1">
         <v>33.82</v>
@@ -1939,15 +1979,15 @@
         <v>90</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B63" s="1">
         <v>32.47</v>
@@ -1959,15 +1999,15 @@
         <v>270</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B64" s="1">
         <v>19.399999999999999</v>
@@ -1979,15 +2019,15 @@
         <v>270</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B65" s="1">
         <v>26.6</v>
@@ -2002,12 +2042,12 @@
         <v>180</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B66" s="1">
         <v>29.7</v>
@@ -2019,15 +2059,15 @@
         <v>180</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B67" s="1">
         <v>22.19</v>
@@ -2039,190 +2079,210 @@
         <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B68" s="1">
-        <v>27.7</v>
+        <v>30.54</v>
       </c>
       <c r="C68" s="1">
-        <v>8.69</v>
+        <v>7.67</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B69" s="1">
-        <v>25.08</v>
+        <v>27.95</v>
       </c>
       <c r="C69" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.19</v>
       </c>
       <c r="D69" s="1">
         <v>270</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>33</v>
+      <c r="E69" s="1">
+        <v>0</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B70" s="1">
-        <v>33.93</v>
+        <v>25.08</v>
       </c>
       <c r="C70" s="1">
-        <v>19.64</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D70" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B71" s="1">
-        <v>34.82</v>
+        <v>33.93</v>
       </c>
       <c r="C71" s="1">
-        <v>23.84</v>
+        <v>19.64</v>
       </c>
       <c r="D71" s="1">
-        <v>90</v>
-      </c>
-      <c r="E71" s="1">
-        <v>331</v>
+        <v>180</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B72" s="1">
-        <v>22.39</v>
+        <v>34.82</v>
       </c>
       <c r="C72" s="1">
-        <v>8.7200000000000006</v>
+        <v>23.84</v>
       </c>
       <c r="D72" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B73" s="1">
-        <v>32.770000000000003</v>
+        <v>22.39</v>
       </c>
       <c r="C73" s="1">
-        <v>23.11</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>106</v>
+      <c r="E73" s="1">
+        <v>0</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B74" s="1">
-        <v>37.659999999999997</v>
+        <v>32.770000000000003</v>
       </c>
       <c r="C74" s="1">
-        <v>23.46</v>
+        <v>23.11</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B75" s="1">
-        <v>44.98</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="C75" s="1">
-        <v>2.2400000000000002</v>
+        <v>23.46</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B76" s="1">
+        <v>44.98</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="1">
         <v>27.72</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C77" s="1">
         <v>4.7</v>
       </c>
-      <c r="D76" s="1">
-        <v>180</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>69</v>
+      <c r="D77" s="1">
+        <v>180</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/CPL/CPL.xlsx
+++ b/CPL/CPL.xlsx
@@ -10,10 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Bottom" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="Bottom_1" localSheetId="0">Sheet1!$A$48:$F$77</definedName>
+    <definedName name="Bottom" localSheetId="0">Sheet1!$A$43:$F$67</definedName>
+    <definedName name="Bottom_1" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="Top" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="Top_1" localSheetId="0">Sheet1!$A$6:$F$45</definedName>
+    <definedName name="Top_1" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="Top_2" localSheetId="0">Sheet1!$A$6:$F$39</definedName>
   </definedNames>
   <calcPr calcId="140000" iterate="1" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Bottom.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="1" name="Bottom.txt" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Bottom.txt" space="1" consecutive="1">
       <textFields count="6">
         <textField/>
@@ -38,7 +39,31 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="Top.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="2" name="Bottom.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Bottom.txt" space="1" consecutive="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="Top.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Top.txt" space="1" consecutive="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="Top.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Top.txt" space="1" consecutive="1">
       <textFields count="6">
         <textField/>
@@ -54,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>FC-135</t>
   </si>
@@ -149,18 +174,9 @@
     <t>6.8uH</t>
   </si>
   <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>DNP</t>
-  </si>
-  <si>
     <t>L4</t>
   </si>
   <si>
-    <t>47uH</t>
-  </si>
-  <si>
     <t>LED1</t>
   </si>
   <si>
@@ -224,18 +240,6 @@
     <t>R8</t>
   </si>
   <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>0603-RES</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
     <t>REAR_PANEL</t>
   </si>
   <si>
@@ -251,15 +255,6 @@
     <t>HDMID</t>
   </si>
   <si>
-    <t>U$3</t>
-  </si>
-  <si>
-    <t>MM5329-2700</t>
-  </si>
-  <si>
-    <t>MM5829-2700</t>
-  </si>
-  <si>
     <t>U$6</t>
   </si>
   <si>
@@ -350,21 +345,12 @@
     <t>R12</t>
   </si>
   <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
     <t>R19</t>
   </si>
   <si>
     <t>R20</t>
   </si>
   <si>
-    <t>R22</t>
-  </si>
-  <si>
     <t>U$2</t>
   </si>
   <si>
@@ -383,9 +369,6 @@
     <t>JOHANSON_GPS_CHIP</t>
   </si>
   <si>
-    <t>U$7</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -410,13 +393,13 @@
     <t>Bottom</t>
   </si>
   <si>
-    <t>R14</t>
-  </si>
-  <si>
     <t>U$9</t>
   </si>
   <si>
-    <t>R16</t>
+    <t>10uH</t>
+  </si>
+  <si>
+    <t>ASPI-0315FS</t>
   </si>
 </sst>
 </file>
@@ -473,8 +456,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -493,17 +484,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,11 +511,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bottom_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bottom" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Top_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Top_2" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -841,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F77"/>
+  <dimension ref="A4:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -853,31 +852,32 @@
     <col min="2" max="3" width="6.1640625" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" customWidth="1"/>
     <col min="5" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1225,39 +1225,39 @@
         <v>31</v>
       </c>
       <c r="B23" s="1">
-        <v>18.93</v>
+        <v>33.770000000000003</v>
       </c>
       <c r="C23" s="1">
-        <v>19.73</v>
+        <v>24.42</v>
       </c>
       <c r="D23" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="1">
-        <v>603</v>
+        <v>105</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1">
+        <v>22.48</v>
+      </c>
+      <c r="C24" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="D24" s="1">
+        <v>180</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="1">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="C24" s="1">
-        <v>24.28</v>
-      </c>
-      <c r="D24" s="1">
-        <v>180</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F24" s="1">
-        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1265,39 +1265,39 @@
         <v>35</v>
       </c>
       <c r="B25" s="1">
-        <v>22.48</v>
+        <v>24.74</v>
       </c>
       <c r="C25" s="1">
-        <v>11.86</v>
+        <v>9.99</v>
       </c>
       <c r="D25" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1">
-        <v>24.74</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="C26" s="1">
-        <v>9.99</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="D26" s="1">
         <v>270</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1305,36 +1305,36 @@
         <v>40</v>
       </c>
       <c r="B27" s="1">
-        <v>35.32</v>
+        <v>30.26</v>
       </c>
       <c r="C27" s="1">
-        <v>19.95</v>
+        <v>15.01</v>
       </c>
       <c r="D27" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1">
+        <v>37.81</v>
+      </c>
+      <c r="C28" s="1">
+        <v>16.04</v>
+      </c>
+      <c r="D28" s="1">
+        <v>180</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B28" s="1">
-        <v>30.26</v>
-      </c>
-      <c r="C28" s="1">
-        <v>15.01</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>44</v>
@@ -1345,10 +1345,10 @@
         <v>45</v>
       </c>
       <c r="B29" s="1">
-        <v>37.81</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C29" s="1">
-        <v>16.04</v>
+        <v>12.21</v>
       </c>
       <c r="D29" s="1">
         <v>180</v>
@@ -1357,58 +1357,58 @@
         <v>46</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1">
-        <v>19.899999999999999</v>
+        <v>19.89</v>
       </c>
       <c r="C30" s="1">
-        <v>12.21</v>
+        <v>10.91</v>
       </c>
       <c r="D30" s="1">
         <v>180</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1">
-        <v>19.89</v>
+        <v>24.75</v>
       </c>
       <c r="C31" s="1">
-        <v>10.91</v>
+        <v>12.48</v>
       </c>
       <c r="D31" s="1">
-        <v>180</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>180</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1">
-        <v>24.75</v>
+        <v>24.78</v>
       </c>
       <c r="C32" s="1">
-        <v>12.48</v>
+        <v>11.27</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -1417,289 +1417,269 @@
         <v>180</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1">
-        <v>24.78</v>
+        <v>16.82</v>
       </c>
       <c r="C33" s="1">
-        <v>11.27</v>
+        <v>10.9</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>180</v>
+        <v>180</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
-        <v>16.82</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="C34" s="1">
-        <v>10.9</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="D34" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1">
-        <v>34.11</v>
+        <v>24.96</v>
       </c>
       <c r="C35" s="1">
-        <v>19.84</v>
+        <v>39.06</v>
       </c>
       <c r="D35" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="1">
+        <v>26.67</v>
+      </c>
+      <c r="C36" s="1">
+        <v>20.78</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="1">
-        <v>16.32</v>
-      </c>
-      <c r="C36" s="1">
-        <v>20.51</v>
-      </c>
-      <c r="D36" s="1">
-        <v>180</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1">
-        <v>20.98</v>
+        <v>14.1</v>
       </c>
       <c r="C37" s="1">
-        <v>21.84</v>
+        <v>20.5</v>
       </c>
       <c r="D37" s="1">
         <v>270</v>
       </c>
-      <c r="E37" s="1">
-        <v>0</v>
+      <c r="E37" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B38" s="1">
-        <v>32.270000000000003</v>
+        <v>37.46</v>
       </c>
       <c r="C38" s="1">
-        <v>23.8</v>
+        <v>22.31</v>
       </c>
       <c r="D38" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B39" s="1">
-        <v>21.76</v>
+        <v>45.87</v>
       </c>
       <c r="C39" s="1">
-        <v>19.28</v>
+        <v>17.05</v>
       </c>
       <c r="D39" s="1">
-        <v>180</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="1">
-        <v>25.05</v>
-      </c>
-      <c r="C40" s="1">
-        <v>37.94</v>
-      </c>
-      <c r="D40" s="1">
-        <v>180</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="1">
-        <v>26.85</v>
-      </c>
-      <c r="C41" s="1">
-        <v>21.33</v>
-      </c>
-      <c r="D41" s="1">
-        <v>90</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="1">
-        <v>18.559999999999999</v>
-      </c>
-      <c r="C42" s="1">
-        <v>24.28</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>67</v>
+      <c r="A42" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B43" s="1">
-        <v>14.1</v>
+        <v>36.67</v>
       </c>
       <c r="C43" s="1">
-        <v>20.5</v>
+        <v>11.72</v>
       </c>
       <c r="D43" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B44" s="1">
-        <v>37.46</v>
+        <v>36.68</v>
       </c>
       <c r="C44" s="1">
-        <v>22.31</v>
+        <v>10.64</v>
       </c>
       <c r="D44" s="1">
         <v>180</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B45" s="1">
-        <v>45.87</v>
+        <v>36.69</v>
       </c>
       <c r="C45" s="1">
-        <v>17.05</v>
+        <v>9.56</v>
       </c>
       <c r="D45" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>64</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="1">
+        <v>36.69</v>
+      </c>
+      <c r="C46" s="1">
+        <v>8.49</v>
+      </c>
+      <c r="D46" s="1">
+        <v>180</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="2" t="s">
-        <v>117</v>
+      <c r="A47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="1">
+        <v>33.64</v>
+      </c>
+      <c r="C47" s="1">
+        <v>11.73</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B48" s="1">
-        <v>36.67</v>
+        <v>33.630000000000003</v>
       </c>
       <c r="C48" s="1">
-        <v>11.72</v>
+        <v>10.64</v>
       </c>
       <c r="D48" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -1707,19 +1687,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B49" s="1">
-        <v>36.68</v>
+        <v>33.619999999999997</v>
       </c>
       <c r="C49" s="1">
-        <v>10.64</v>
+        <v>9.57</v>
       </c>
       <c r="D49" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>5</v>
@@ -1727,19 +1707,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B50" s="1">
-        <v>36.69</v>
+        <v>33.61</v>
       </c>
       <c r="C50" s="1">
-        <v>9.56</v>
+        <v>8.49</v>
       </c>
       <c r="D50" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>5</v>
@@ -1747,19 +1727,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B51" s="1">
-        <v>36.69</v>
+        <v>22.19</v>
       </c>
       <c r="C51" s="1">
-        <v>8.49</v>
+        <v>23.35</v>
       </c>
       <c r="D51" s="1">
         <v>180</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>5</v>
@@ -1767,522 +1747,322 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B52" s="1">
-        <v>33.64</v>
+        <v>37.68</v>
       </c>
       <c r="C52" s="1">
-        <v>11.73</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
+      </c>
+      <c r="F52" s="1">
+        <v>805</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B53" s="1">
-        <v>33.630000000000003</v>
+        <v>24.96</v>
       </c>
       <c r="C53" s="1">
-        <v>10.64</v>
+        <v>39.049999999999997</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B54" s="1">
-        <v>33.619999999999997</v>
+        <v>25.72</v>
       </c>
       <c r="C54" s="1">
-        <v>9.57</v>
+        <v>14.89</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B55" s="1">
-        <v>33.61</v>
+        <v>31.66</v>
       </c>
       <c r="C55" s="1">
-        <v>8.49</v>
+        <v>4.99</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
+      </c>
+      <c r="F55" s="1">
+        <v>603</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B56" s="1">
-        <v>22.19</v>
+        <v>26.49</v>
       </c>
       <c r="C56" s="1">
-        <v>23.35</v>
+        <v>25.22</v>
       </c>
       <c r="D56" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1">
-        <v>37.68</v>
+        <v>33.82</v>
       </c>
       <c r="C57" s="1">
-        <v>18.690000000000001</v>
+        <v>14.54</v>
       </c>
       <c r="D57" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57" s="1">
-        <v>805</v>
+        <v>38</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B58" s="1">
-        <v>25.03</v>
+        <v>32.47</v>
       </c>
       <c r="C58" s="1">
-        <v>37.950000000000003</v>
+        <v>14.66</v>
       </c>
       <c r="D58" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B59" s="1">
-        <v>25.72</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C59" s="1">
-        <v>14.89</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="D59" s="1">
         <v>270</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B60" s="1">
-        <v>31.66</v>
+        <v>26.6</v>
       </c>
       <c r="C60" s="1">
-        <v>4.99</v>
+        <v>22.8</v>
       </c>
       <c r="D60" s="1">
         <v>180</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F60" s="1">
-        <v>603</v>
+      <c r="E60" s="1">
+        <v>180</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B61" s="1">
-        <v>26.49</v>
+        <v>29.7</v>
       </c>
       <c r="C61" s="1">
-        <v>25.22</v>
+        <v>22.79</v>
       </c>
       <c r="D61" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B62" s="1">
-        <v>33.82</v>
+        <v>22.19</v>
       </c>
       <c r="C62" s="1">
-        <v>14.54</v>
+        <v>22.22</v>
       </c>
       <c r="D62" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B63" s="1">
-        <v>32.47</v>
+        <v>33.93</v>
       </c>
       <c r="C63" s="1">
-        <v>14.66</v>
+        <v>19.64</v>
       </c>
       <c r="D63" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B64" s="1">
-        <v>19.399999999999999</v>
+        <v>34.82</v>
       </c>
       <c r="C64" s="1">
-        <v>16.649999999999999</v>
+        <v>23.84</v>
       </c>
       <c r="D64" s="1">
-        <v>270</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
+      </c>
+      <c r="E64" s="1">
+        <v>331</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B65" s="1">
-        <v>26.6</v>
+        <v>32.770000000000003</v>
       </c>
       <c r="C65" s="1">
-        <v>22.8</v>
+        <v>23.11</v>
       </c>
       <c r="D65" s="1">
-        <v>180</v>
-      </c>
-      <c r="E65" s="1">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B66" s="1">
-        <v>29.7</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="C66" s="1">
-        <v>22.79</v>
+        <v>23.46</v>
       </c>
       <c r="D66" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B67" s="1">
-        <v>22.19</v>
+        <v>44.98</v>
       </c>
       <c r="C67" s="1">
-        <v>22.22</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B68" s="1">
-        <v>30.54</v>
-      </c>
-      <c r="C68" s="1">
-        <v>7.67</v>
-      </c>
-      <c r="D68" s="1">
-        <v>90</v>
-      </c>
-      <c r="E68" s="1">
-        <v>0</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69" s="1">
-        <v>27.95</v>
-      </c>
-      <c r="C69" s="1">
-        <v>8.19</v>
-      </c>
-      <c r="D69" s="1">
-        <v>270</v>
-      </c>
-      <c r="E69" s="1">
-        <v>0</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B70" s="1">
-        <v>25.08</v>
-      </c>
-      <c r="C70" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D70" s="1">
-        <v>270</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" s="1">
-        <v>33.93</v>
-      </c>
-      <c r="C71" s="1">
-        <v>19.64</v>
-      </c>
-      <c r="D71" s="1">
-        <v>180</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" s="1">
-        <v>34.82</v>
-      </c>
-      <c r="C72" s="1">
-        <v>23.84</v>
-      </c>
-      <c r="D72" s="1">
-        <v>90</v>
-      </c>
-      <c r="E72" s="1">
-        <v>331</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B73" s="1">
-        <v>22.39</v>
-      </c>
-      <c r="C73" s="1">
-        <v>8.7200000000000006</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0</v>
-      </c>
-      <c r="E73" s="1">
-        <v>0</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B74" s="1">
-        <v>32.770000000000003</v>
-      </c>
-      <c r="C74" s="1">
-        <v>23.11</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B75" s="1">
-        <v>37.659999999999997</v>
-      </c>
-      <c r="C75" s="1">
-        <v>23.46</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B76" s="1">
-        <v>44.98</v>
-      </c>
-      <c r="C76" s="1">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B77" s="1">
-        <v>27.72</v>
-      </c>
-      <c r="C77" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="D77" s="1">
-        <v>180</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/CPL/CPL.xlsx
+++ b/CPL/CPL.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Bottom" localSheetId="0">Sheet1!$A$43:$F$67</definedName>
+    <definedName name="Bottom" localSheetId="0">Sheet1!$A$112:$F$136</definedName>
     <definedName name="Bottom_1" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="Bottom_2" localSheetId="0">Sheet1!$A$55:$F$86</definedName>
     <definedName name="Top" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="Top_1" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="Top_2" localSheetId="0">Sheet1!$A$6:$F$39</definedName>
+    <definedName name="Top_2" localSheetId="0">Sheet1!$A$76:$F$109</definedName>
+    <definedName name="Top_3" localSheetId="0">Sheet1!$A$6:$F$51</definedName>
   </definedNames>
   <calcPr calcId="140000" iterate="1" concurrentCalc="0"/>
   <extLst>
@@ -51,8 +53,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="Top.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Top.txt" space="1" consecutive="1">
+  <connection id="3" name="Bottom.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Bottom.txt" space="1" consecutive="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -63,8 +65,32 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="Top.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="4" name="Top.txt" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Top.txt" space="1" consecutive="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="Top.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Top.txt" space="1" consecutive="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="Top.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Top.txt" tab="0" space="1" consecutive="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -79,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="134">
   <si>
     <t>FC-135</t>
   </si>
@@ -243,18 +269,12 @@
     <t>REAR_PANEL</t>
   </si>
   <si>
-    <t>ALTA_CELL</t>
-  </si>
-  <si>
     <t>TSX3225</t>
   </si>
   <si>
     <t>TSX-3225</t>
   </si>
   <si>
-    <t>HDMID</t>
-  </si>
-  <si>
     <t>U$6</t>
   </si>
   <si>
@@ -393,13 +413,100 @@
     <t>Bottom</t>
   </si>
   <si>
-    <t>U$9</t>
-  </si>
-  <si>
     <t>10uH</t>
   </si>
   <si>
     <t>ASPI-0315FS</t>
+  </si>
+  <si>
+    <t>SOLARMD</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>CORTEX_DEBUG_SMD</t>
+  </si>
+  <si>
+    <t>SAMTECH_FTSH-105-01</t>
+  </si>
+  <si>
+    <t>NPN</t>
+  </si>
+  <si>
+    <t>MMDT3904</t>
+  </si>
+  <si>
+    <t>PNP</t>
+  </si>
+  <si>
+    <t>MMDT3906</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>0603-RES</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>SCHTOKKY</t>
+  </si>
+  <si>
+    <t>STPS1L30MF</t>
+  </si>
+  <si>
+    <t>U$1</t>
+  </si>
+  <si>
+    <t>MM5329-2700</t>
+  </si>
+  <si>
+    <t>MM5829-2700</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>SI7021</t>
+  </si>
+  <si>
+    <t>U$3</t>
   </si>
 </sst>
 </file>
@@ -412,6 +519,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -456,7 +564,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -476,15 +584,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -494,6 +620,12 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -503,6 +635,12 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,11 +649,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bottom" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bottom_2" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Top_2" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Top_3" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Top_2" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bottom" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -840,44 +986,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F67"/>
+  <dimension ref="A4:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="6" width="20.1640625" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.1640625" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1105,10 +1257,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>15.85</v>
+        <v>15.77</v>
       </c>
       <c r="C17" s="1">
-        <v>23.03</v>
+        <v>23.25</v>
       </c>
       <c r="D17" s="1">
         <v>270</v>
@@ -1182,239 +1334,239 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1">
-        <v>17.399999999999999</v>
+        <v>22.41</v>
       </c>
       <c r="C21" s="1">
-        <v>3.83</v>
+        <v>42.58</v>
       </c>
       <c r="D21" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
-        <v>31.86</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>21.19</v>
+        <v>3.83</v>
       </c>
       <c r="D22" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="1">
-        <v>603</v>
+        <v>27</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="B23" s="1">
-        <v>33.770000000000003</v>
+        <v>46.2</v>
       </c>
       <c r="C23" s="1">
-        <v>24.42</v>
+        <v>17.61</v>
       </c>
       <c r="D23" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1">
-        <v>22.48</v>
+        <v>31.86</v>
       </c>
       <c r="C24" s="1">
-        <v>11.86</v>
+        <v>21.28</v>
       </c>
       <c r="D24" s="1">
         <v>180</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="F24" s="1">
+        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1">
-        <v>24.74</v>
+        <v>33.770000000000003</v>
       </c>
       <c r="C25" s="1">
-        <v>9.99</v>
+        <v>24.42</v>
       </c>
       <c r="D25" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1">
-        <v>35.119999999999997</v>
+        <v>22.48</v>
       </c>
       <c r="C26" s="1">
-        <v>19.940000000000001</v>
+        <v>11.86</v>
       </c>
       <c r="D26" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1">
-        <v>30.26</v>
+        <v>23.23</v>
       </c>
       <c r="C27" s="1">
-        <v>15.01</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1">
-        <v>37.81</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="C28" s="1">
-        <v>16.04</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="D28" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1">
-        <v>19.899999999999999</v>
+        <v>30.26</v>
       </c>
       <c r="C29" s="1">
-        <v>12.21</v>
+        <v>15.01</v>
       </c>
       <c r="D29" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="B30" s="1">
-        <v>19.89</v>
+        <v>23.63</v>
       </c>
       <c r="C30" s="1">
-        <v>10.91</v>
+        <v>3.48</v>
       </c>
       <c r="D30" s="1">
         <v>180</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="B31" s="1">
-        <v>24.75</v>
+        <v>33.659999999999997</v>
       </c>
       <c r="C31" s="1">
-        <v>12.48</v>
+        <v>4.22</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>180</v>
+        <v>270</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1">
-        <v>24.78</v>
+        <v>37.81</v>
       </c>
       <c r="C32" s="1">
-        <v>11.27</v>
+        <v>16.04</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
         <v>180</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>44</v>
@@ -1422,19 +1574,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1">
-        <v>16.82</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C33" s="1">
-        <v>10.9</v>
+        <v>12.21</v>
       </c>
       <c r="D33" s="1">
         <v>180</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>44</v>
@@ -1442,19 +1594,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1">
-        <v>33.979999999999997</v>
+        <v>19.89</v>
       </c>
       <c r="C34" s="1">
-        <v>19.940000000000001</v>
+        <v>10.91</v>
       </c>
       <c r="D34" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>44</v>
@@ -1462,608 +1614,1395 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B35" s="1">
-        <v>24.96</v>
+        <v>24.75</v>
       </c>
       <c r="C35" s="1">
-        <v>39.06</v>
+        <v>12.48</v>
       </c>
       <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
         <v>180</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1">
-        <v>26.67</v>
+        <v>24.78</v>
       </c>
       <c r="C36" s="1">
-        <v>20.78</v>
+        <v>11.27</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>56</v>
+      <c r="E36" s="1">
+        <v>180</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1">
-        <v>14.1</v>
+        <v>16.82</v>
       </c>
       <c r="C37" s="1">
-        <v>20.5</v>
+        <v>10.9</v>
       </c>
       <c r="D37" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B38" s="1">
-        <v>37.46</v>
+        <v>28.41</v>
       </c>
       <c r="C38" s="1">
-        <v>22.31</v>
+        <v>5.92</v>
       </c>
       <c r="D38" s="1">
         <v>180</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>61</v>
+      <c r="E38" s="1">
+        <v>330</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="B39" s="1">
-        <v>45.87</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="C39" s="1">
-        <v>17.05</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="D39" s="1">
         <v>90</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="1">
+        <v>28.38</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>330</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="1">
+        <v>26.61</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="D41" s="1">
+        <v>180</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="2" t="s">
-        <v>103</v>
+      <c r="A42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="1">
+        <v>27.11</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>330</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1">
-        <v>36.67</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="C43" s="1">
-        <v>11.72</v>
+        <v>20.58</v>
       </c>
       <c r="D43" s="1">
-        <v>180</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="B44" s="1">
-        <v>36.68</v>
+        <v>17.88</v>
       </c>
       <c r="C44" s="1">
-        <v>10.64</v>
+        <v>23.21</v>
       </c>
       <c r="D44" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B45" s="1">
-        <v>36.69</v>
+        <v>20</v>
       </c>
       <c r="C45" s="1">
-        <v>9.56</v>
+        <v>21.46</v>
       </c>
       <c r="D45" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B46" s="1">
-        <v>36.69</v>
+        <v>21.75</v>
       </c>
       <c r="C46" s="1">
-        <v>8.49</v>
+        <v>18.86</v>
       </c>
       <c r="D46" s="1">
-        <v>180</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="B47" s="1">
-        <v>33.64</v>
+        <v>48.21</v>
       </c>
       <c r="C47" s="1">
-        <v>11.73</v>
+        <v>36.99</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1">
-        <v>33.630000000000003</v>
+        <v>26.67</v>
       </c>
       <c r="C48" s="1">
-        <v>10.64</v>
+        <v>20.78</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="B49" s="1">
-        <v>33.619999999999997</v>
+        <v>22.83</v>
       </c>
       <c r="C49" s="1">
-        <v>9.57</v>
+        <v>25.07</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B50" s="1">
-        <v>33.61</v>
+        <v>14.1</v>
       </c>
       <c r="C50" s="1">
-        <v>8.49</v>
+        <v>20.5</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B51" s="1">
-        <v>22.19</v>
+        <v>37.46</v>
       </c>
       <c r="C51" s="1">
-        <v>23.35</v>
+        <v>22.31</v>
       </c>
       <c r="D51" s="1">
         <v>180</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="1">
-        <v>37.68</v>
-      </c>
-      <c r="C52" s="1">
-        <v>18.690000000000001</v>
-      </c>
-      <c r="D52" s="1">
-        <v>270</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" s="1">
-        <v>805</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="1">
-        <v>24.96</v>
-      </c>
-      <c r="C53" s="1">
-        <v>39.049999999999997</v>
-      </c>
-      <c r="D53" s="1">
-        <v>180</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>54</v>
+      <c r="A53" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="1">
-        <v>25.72</v>
-      </c>
-      <c r="C54" s="1">
-        <v>14.89</v>
-      </c>
-      <c r="D54" s="1">
-        <v>270</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>76</v>
+      <c r="A54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B55" s="1">
-        <v>31.66</v>
+        <v>36.67</v>
       </c>
       <c r="C55" s="1">
-        <v>4.99</v>
+        <v>11.72</v>
       </c>
       <c r="D55" s="1">
         <v>180</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" s="1">
-        <v>603</v>
+        <v>4</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1">
-        <v>26.49</v>
+        <v>36.68</v>
       </c>
       <c r="C56" s="1">
-        <v>25.22</v>
+        <v>10.64</v>
       </c>
       <c r="D56" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B57" s="1">
-        <v>33.82</v>
+        <v>36.69</v>
       </c>
       <c r="C57" s="1">
-        <v>14.54</v>
+        <v>9.56</v>
       </c>
       <c r="D57" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B58" s="1">
-        <v>32.47</v>
+        <v>36.69</v>
       </c>
       <c r="C58" s="1">
-        <v>14.66</v>
+        <v>8.49</v>
       </c>
       <c r="D58" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B59" s="1">
-        <v>19.399999999999999</v>
+        <v>33.64</v>
       </c>
       <c r="C59" s="1">
-        <v>16.649999999999999</v>
+        <v>11.73</v>
       </c>
       <c r="D59" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B60" s="1">
-        <v>26.6</v>
+        <v>33.630000000000003</v>
       </c>
       <c r="C60" s="1">
-        <v>22.8</v>
+        <v>10.64</v>
       </c>
       <c r="D60" s="1">
-        <v>180</v>
-      </c>
-      <c r="E60" s="1">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B61" s="1">
-        <v>29.7</v>
+        <v>33.619999999999997</v>
       </c>
       <c r="C61" s="1">
-        <v>22.79</v>
+        <v>9.57</v>
       </c>
       <c r="D61" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B62" s="1">
-        <v>22.19</v>
+        <v>33.61</v>
       </c>
       <c r="C62" s="1">
-        <v>22.22</v>
+        <v>8.49</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1">
-        <v>33.93</v>
+        <v>22.19</v>
       </c>
       <c r="C63" s="1">
-        <v>19.64</v>
+        <v>23.35</v>
       </c>
       <c r="D63" s="1">
         <v>180</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B64" s="1">
-        <v>34.82</v>
+        <v>37.68</v>
       </c>
       <c r="C64" s="1">
-        <v>23.84</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="D64" s="1">
-        <v>90</v>
-      </c>
-      <c r="E64" s="1">
-        <v>331</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>44</v>
+        <v>270</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" s="1">
+        <v>805</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="1">
+        <v>15.77</v>
+      </c>
+      <c r="C65" s="1">
+        <v>11.91</v>
+      </c>
+      <c r="D65" s="1">
         <v>90</v>
       </c>
-      <c r="B65" s="1">
-        <v>32.770000000000003</v>
-      </c>
-      <c r="C65" s="1">
-        <v>23.11</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B66" s="1">
-        <v>37.659999999999997</v>
+        <v>25.72</v>
       </c>
       <c r="C66" s="1">
-        <v>23.46</v>
+        <v>14.89</v>
       </c>
       <c r="D66" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B67" s="1">
+        <v>35.46</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="D67" s="1">
+        <v>270</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="1">
+        <v>26.49</v>
+      </c>
+      <c r="C68" s="1">
+        <v>25.22</v>
+      </c>
+      <c r="D68" s="1">
+        <v>90</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="1">
+        <v>34.54</v>
+      </c>
+      <c r="C69" s="1">
+        <v>17.63</v>
+      </c>
+      <c r="D69" s="1">
+        <v>270</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C70" s="1">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="D70" s="1">
+        <v>270</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="1">
+        <v>26.6</v>
+      </c>
+      <c r="C71" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="D71" s="1">
+        <v>180</v>
+      </c>
+      <c r="E71" s="1">
+        <v>180</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="C72" s="1">
+        <v>22.79</v>
+      </c>
+      <c r="D72" s="1">
+        <v>180</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="1">
+        <v>22.19</v>
+      </c>
+      <c r="C73" s="1">
+        <v>22.22</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="1">
+        <v>33.93</v>
+      </c>
+      <c r="C74" s="1">
+        <v>19.64</v>
+      </c>
+      <c r="D74" s="1">
+        <v>180</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="3">
+        <v>34.82</v>
+      </c>
+      <c r="C75" s="3">
+        <v>23.84</v>
+      </c>
+      <c r="D75" s="3">
+        <v>90</v>
+      </c>
+      <c r="E75" s="3">
+        <v>330</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="1">
+        <v>22.4</v>
+      </c>
+      <c r="C76" s="1">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="D76" s="1">
+        <v>180</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="1">
+        <v>33.29</v>
+      </c>
+      <c r="C77" s="1">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="D77" s="1">
+        <v>270</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="1">
+        <v>30.69</v>
+      </c>
+      <c r="C78" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="1">
+        <v>24.95</v>
+      </c>
+      <c r="C79" s="1">
+        <v>7.83</v>
+      </c>
+      <c r="D79" s="1">
+        <v>270</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="1">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="C80" s="1">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="D80" s="1">
+        <v>90</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81" s="1">
+        <v>22.36</v>
+      </c>
+      <c r="C81" s="1">
+        <v>42.55</v>
+      </c>
+      <c r="D81" s="1">
+        <v>180</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="1">
+        <v>22.83</v>
+      </c>
+      <c r="C82" s="1">
+        <v>4.38</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="1">
+        <v>32.770000000000003</v>
+      </c>
+      <c r="C83" s="1">
+        <v>23.11</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="1">
+        <v>26.39</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="D84" s="1">
+        <v>180</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="1">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="C85" s="1">
+        <v>23.46</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" s="1">
         <v>44.98</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C86" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D86" s="1">
         <v>0</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="E86" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CPL/CPL.xlsx
+++ b/CPL/CPL.xlsx
@@ -12,11 +12,12 @@
   <definedNames>
     <definedName name="Bottom" localSheetId="0">Sheet1!$A$112:$F$136</definedName>
     <definedName name="Bottom_1" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="Bottom_2" localSheetId="0">Sheet1!$A$55:$F$86</definedName>
-    <definedName name="Top" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="Bottom_2" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="Bottom_3" localSheetId="0">Sheet1!$A$55:$F$86</definedName>
+    <definedName name="Top" localSheetId="0">Sheet1!$A$6:$F$51</definedName>
     <definedName name="Top_1" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="Top_2" localSheetId="0">Sheet1!$A$76:$F$109</definedName>
-    <definedName name="Top_3" localSheetId="0">Sheet1!$A$6:$F$51</definedName>
+    <definedName name="Top_2" localSheetId="0">Sheet1!$A$87:$F$109</definedName>
+    <definedName name="Top_3" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="140000" iterate="1" concurrentCalc="0"/>
   <extLst>
@@ -53,8 +54,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="Bottom.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Bottom.txt" space="1" consecutive="1">
+  <connection id="3" name="Bottom.txt3" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Bottom.txt" space="1" consecutive="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -89,8 +90,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="Top.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Top.txt" tab="0" space="1" consecutive="1">
+  <connection id="6" name="Top.txt3" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Top.txt" space="1" consecutive="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="133">
   <si>
     <t>FC-135</t>
   </si>
@@ -164,12 +165,6 @@
     <t>0.1uF</t>
   </si>
   <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>0603-CAP</t>
-  </si>
-  <si>
     <t>C22</t>
   </si>
   <si>
@@ -332,12 +327,6 @@
     <t>VENUS838FLPX</t>
   </si>
   <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>2.2nH</t>
-  </si>
-  <si>
     <t>LED3</t>
   </si>
   <si>
@@ -507,6 +496,15 @@
   </si>
   <si>
     <t>U$3</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>5.6nH</t>
+  </si>
+  <si>
+    <t>R27</t>
   </si>
 </sst>
 </file>
@@ -564,7 +562,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -596,21 +594,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -626,6 +625,8 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -641,6 +642,8 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -649,19 +652,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bottom_2" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bottom_3" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Top_3" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Top" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Top_2" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bottom" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bottom" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Top_2" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -988,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1000,36 +1003,36 @@
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="6" width="20.1640625" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.1640625" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="10" width="6.1640625" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" customWidth="1"/>
+    <col min="12" max="13" width="20.1640625" customWidth="1"/>
     <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1257,19 +1260,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>15.77</v>
+        <v>40.409999999999997</v>
       </c>
       <c r="C17" s="1">
-        <v>23.25</v>
+        <v>22.51</v>
       </c>
       <c r="D17" s="1">
         <v>270</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <v>805</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1277,16 +1280,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="1">
-        <v>40.409999999999997</v>
+        <v>44.83</v>
       </c>
       <c r="C18" s="1">
-        <v>22.51</v>
+        <v>22.94</v>
       </c>
       <c r="D18" s="1">
         <v>270</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1">
         <v>805</v>
@@ -1294,119 +1297,119 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
-        <v>44.83</v>
+        <v>23.79</v>
       </c>
       <c r="C19" s="1">
-        <v>22.94</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="D19" s="1">
         <v>270</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="1">
-        <v>805</v>
+        <v>23</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1">
-        <v>23.79</v>
+        <v>22.41</v>
       </c>
       <c r="C20" s="1">
-        <v>17.739999999999998</v>
+        <v>42.58</v>
       </c>
       <c r="D20" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
-        <v>22.41</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>42.58</v>
+        <v>3.83</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="B22" s="1">
-        <v>17.399999999999999</v>
+        <v>46.2</v>
       </c>
       <c r="C22" s="1">
-        <v>3.83</v>
+        <v>17.61</v>
       </c>
       <c r="D22" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1">
-        <v>46.2</v>
+        <v>31.86</v>
       </c>
       <c r="C23" s="1">
-        <v>17.61</v>
+        <v>21.28</v>
       </c>
       <c r="D23" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>107</v>
+        <v>28</v>
+      </c>
+      <c r="F23" s="1">
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="B24" s="1">
-        <v>31.86</v>
+        <v>17.53</v>
       </c>
       <c r="C24" s="1">
-        <v>21.28</v>
+        <v>23.16</v>
       </c>
       <c r="D24" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="F24" s="1">
         <v>603</v>
@@ -1414,7 +1417,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1">
         <v>33.770000000000003</v>
@@ -1426,15 +1429,15 @@
         <v>180</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
         <v>22.48</v>
@@ -1446,15 +1449,15 @@
         <v>180</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1">
         <v>23.23</v>
@@ -1466,15 +1469,15 @@
         <v>90</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1">
         <v>35.119999999999997</v>
@@ -1486,15 +1489,15 @@
         <v>270</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1">
         <v>30.26</v>
@@ -1506,15 +1509,15 @@
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B30" s="1">
         <v>23.63</v>
@@ -1526,15 +1529,15 @@
         <v>180</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B31" s="1">
         <v>33.659999999999997</v>
@@ -1546,15 +1549,15 @@
         <v>270</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1">
         <v>37.81</v>
@@ -1566,15 +1569,15 @@
         <v>180</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" s="1">
         <v>19.899999999999999</v>
@@ -1586,15 +1589,15 @@
         <v>180</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1">
         <v>19.89</v>
@@ -1606,15 +1609,15 @@
         <v>180</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="1">
         <v>24.75</v>
@@ -1629,12 +1632,12 @@
         <v>180</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1">
         <v>24.78</v>
@@ -1649,12 +1652,12 @@
         <v>180</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1">
         <v>16.82</v>
@@ -1666,15 +1669,15 @@
         <v>180</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B38" s="1">
         <v>28.41</v>
@@ -1689,12 +1692,12 @@
         <v>330</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1">
         <v>33.979999999999997</v>
@@ -1706,15 +1709,15 @@
         <v>90</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B40" s="1">
         <v>28.38</v>
@@ -1729,12 +1732,12 @@
         <v>330</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B41" s="1">
         <v>26.61</v>
@@ -1746,15 +1749,15 @@
         <v>180</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B42" s="1">
         <v>27.11</v>
@@ -1769,12 +1772,12 @@
         <v>330</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B43" s="1">
         <v>16.600000000000001</v>
@@ -1789,32 +1792,32 @@
         <v>0</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B44" s="1">
-        <v>17.88</v>
+        <v>15.44</v>
       </c>
       <c r="C44" s="1">
-        <v>23.21</v>
+        <v>23.16</v>
       </c>
       <c r="D44" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B45" s="1">
         <v>20</v>
@@ -1826,15 +1829,15 @@
         <v>270</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B46" s="1">
         <v>21.75</v>
@@ -1849,12 +1852,12 @@
         <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B47" s="1">
         <v>48.21</v>
@@ -1866,15 +1869,15 @@
         <v>270</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1">
         <v>26.67</v>
@@ -1886,15 +1889,15 @@
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B49" s="1">
         <v>22.83</v>
@@ -1906,15 +1909,15 @@
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1">
         <v>14.1</v>
@@ -1926,15 +1929,15 @@
         <v>270</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1">
         <v>37.46</v>
@@ -1946,40 +1949,40 @@
         <v>180</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1">
         <v>36.67</v>
@@ -1999,7 +2002,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1">
         <v>36.68</v>
@@ -2019,7 +2022,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1">
         <v>36.69</v>
@@ -2039,7 +2042,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B58" s="1">
         <v>36.69</v>
@@ -2059,7 +2062,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B59" s="1">
         <v>33.64</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B60" s="1">
         <v>33.630000000000003</v>
@@ -2091,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>5</v>
@@ -2099,7 +2102,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B61" s="1">
         <v>33.619999999999997</v>
@@ -2119,7 +2122,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B62" s="1">
         <v>33.61</v>
@@ -2139,7 +2142,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B63" s="1">
         <v>22.19</v>
@@ -2159,7 +2162,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B64" s="1">
         <v>37.68</v>
@@ -2171,7 +2174,7 @@
         <v>270</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F64" s="1">
         <v>805</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B65" s="1">
         <v>15.77</v>
@@ -2199,7 +2202,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B66" s="1">
         <v>25.72</v>
@@ -2211,295 +2214,295 @@
         <v>270</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B67" s="1">
-        <v>35.46</v>
+        <v>26.49</v>
       </c>
       <c r="C67" s="1">
-        <v>3.12</v>
+        <v>25.22</v>
       </c>
       <c r="D67" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F67" s="1">
-        <v>603</v>
+        <v>74</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B68" s="1">
-        <v>26.49</v>
+        <v>34.54</v>
       </c>
       <c r="C68" s="1">
-        <v>25.22</v>
+        <v>17.63</v>
       </c>
       <c r="D68" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B69" s="1">
-        <v>34.54</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C69" s="1">
-        <v>17.63</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="D69" s="1">
         <v>270</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B70" s="1">
-        <v>19.399999999999999</v>
+        <v>26.6</v>
       </c>
       <c r="C70" s="1">
-        <v>16.649999999999999</v>
+        <v>22.8</v>
       </c>
       <c r="D70" s="1">
-        <v>270</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>51</v>
+        <v>180</v>
+      </c>
+      <c r="E70" s="1">
+        <v>180</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B71" s="1">
-        <v>26.6</v>
+        <v>29.7</v>
       </c>
       <c r="C71" s="1">
-        <v>22.8</v>
+        <v>22.79</v>
       </c>
       <c r="D71" s="1">
         <v>180</v>
       </c>
-      <c r="E71" s="1">
-        <v>180</v>
+      <c r="E71" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B72" s="1">
-        <v>29.7</v>
+        <v>22.19</v>
       </c>
       <c r="C72" s="1">
-        <v>22.79</v>
+        <v>22.22</v>
       </c>
       <c r="D72" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B73" s="1">
-        <v>22.19</v>
+        <v>33.93</v>
       </c>
       <c r="C73" s="1">
-        <v>22.22</v>
+        <v>19.64</v>
       </c>
       <c r="D73" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B74" s="1">
-        <v>33.93</v>
+        <v>34.82</v>
       </c>
       <c r="C74" s="1">
-        <v>19.64</v>
+        <v>23.84</v>
       </c>
       <c r="D74" s="1">
+        <v>90</v>
+      </c>
+      <c r="E74" s="1">
+        <v>330</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="1">
+        <v>22.4</v>
+      </c>
+      <c r="C75" s="1">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="D75" s="1">
         <v>180</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B75" s="3">
-        <v>34.82</v>
-      </c>
-      <c r="C75" s="3">
-        <v>23.84</v>
-      </c>
-      <c r="D75" s="3">
-        <v>90</v>
-      </c>
-      <c r="E75" s="3">
-        <v>330</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>44</v>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B76" s="1">
-        <v>22.4</v>
+        <v>33.29</v>
       </c>
       <c r="C76" s="1">
-        <v>8.2799999999999994</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="D76" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B77" s="1">
-        <v>33.29</v>
+        <v>30.69</v>
       </c>
       <c r="C77" s="1">
-        <v>4.4800000000000004</v>
+        <v>5.36</v>
       </c>
       <c r="D77" s="1">
-        <v>270</v>
-      </c>
-      <c r="E77" s="1">
         <v>0</v>
       </c>
+      <c r="E77" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="F77" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B78" s="1">
-        <v>30.69</v>
+        <v>24.95</v>
       </c>
       <c r="C78" s="1">
-        <v>5.36</v>
+        <v>7.83</v>
       </c>
       <c r="D78" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B79" s="1">
-        <v>24.95</v>
+        <v>33.020000000000003</v>
       </c>
       <c r="C79" s="1">
-        <v>7.83</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="D79" s="1">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B80" s="1">
-        <v>33.020000000000003</v>
+        <v>35.36</v>
       </c>
       <c r="C80" s="1">
-        <v>17.420000000000002</v>
+        <v>3.1</v>
       </c>
       <c r="D80" s="1">
         <v>90</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B81" s="1">
         <v>22.36</v>
@@ -2511,15 +2514,15 @@
         <v>180</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B82" s="1">
         <v>22.83</v>
@@ -2531,15 +2534,15 @@
         <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B83" s="1">
         <v>32.770000000000003</v>
@@ -2551,15 +2554,15 @@
         <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B84" s="1">
         <v>26.39</v>
@@ -2571,15 +2574,15 @@
         <v>180</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B85" s="1">
         <v>37.659999999999997</v>
@@ -2591,15 +2594,15 @@
         <v>0</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B86" s="1">
         <v>44.98</v>
@@ -2611,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:6">

--- a/CPL/CPL.xlsx
+++ b/CPL/CPL.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="3140" yWindow="0" windowWidth="25380" windowHeight="19060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Bottom" localSheetId="0">Sheet1!$A$112:$F$136</definedName>
+    <definedName name="Bottom" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="Bottom_1" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="Bottom_2" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="Bottom_3" localSheetId="0">Sheet1!$A$55:$F$86</definedName>
-    <definedName name="Top" localSheetId="0">Sheet1!$A$6:$F$51</definedName>
+    <definedName name="Bottom_3" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="Bottom_4" localSheetId="0">Sheet1!$A$55:$F$87</definedName>
+    <definedName name="Top" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="Top_1" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="Top_2" localSheetId="0">Sheet1!$A$87:$F$109</definedName>
+    <definedName name="Top_2" localSheetId="0">Sheet1!$A$88:$F$96</definedName>
     <definedName name="Top_3" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="Top_4" localSheetId="0">Sheet1!$A$6:$F$51</definedName>
   </definedNames>
   <calcPr calcId="140000" iterate="1" concurrentCalc="0"/>
   <extLst>
@@ -54,8 +56,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="Bottom.txt3" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Bottom.txt" space="1" consecutive="1">
+  <connection id="3" name="Bottom.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Bottom.txt" space="1" consecutive="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -66,8 +68,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="Top.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Top.txt" space="1" consecutive="1">
+  <connection id="4" name="Bottom.txt3" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Bottom.txt" space="1" consecutive="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -78,7 +80,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="Top.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="5" name="Top.txt" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Top.txt" space="1" consecutive="1">
       <textFields count="6">
         <textField/>
@@ -90,7 +92,31 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="Top.txt3" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="6" name="Top.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Top.txt" space="1" consecutive="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="Top.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Top.txt" space="1" consecutive="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="Top.txt3" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Top.txt" space="1" consecutive="1">
       <textFields count="6">
         <textField/>
@@ -106,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="134">
   <si>
     <t>FC-135</t>
   </si>
@@ -505,6 +531,9 @@
   </si>
   <si>
     <t>R27</t>
+  </si>
+  <si>
+    <t>R28</t>
   </si>
 </sst>
 </file>
@@ -562,8 +591,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -609,7 +646,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -627,6 +664,10 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -644,6 +685,10 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -652,19 +697,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bottom_3" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bottom_4" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Top" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Top_4" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bottom" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Top_2" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Top_2" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -989,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F136"/>
+  <dimension ref="A4:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1007,7 +1048,10 @@
     <col min="9" max="10" width="6.1640625" customWidth="1"/>
     <col min="11" max="11" width="4.1640625" customWidth="1"/>
     <col min="12" max="13" width="20.1640625" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" customWidth="1"/>
+    <col min="15" max="15" width="4.1640625" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6">
@@ -1320,10 +1364,10 @@
         <v>70</v>
       </c>
       <c r="B20" s="1">
-        <v>22.41</v>
+        <v>24.13</v>
       </c>
       <c r="C20" s="1">
-        <v>42.58</v>
+        <v>42.48</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -1860,10 +1904,10 @@
         <v>117</v>
       </c>
       <c r="B47" s="1">
-        <v>48.21</v>
+        <v>45.31</v>
       </c>
       <c r="C47" s="1">
-        <v>36.99</v>
+        <v>29.63</v>
       </c>
       <c r="D47" s="1">
         <v>270</v>
@@ -1985,10 +2029,10 @@
         <v>58</v>
       </c>
       <c r="B55" s="1">
-        <v>36.67</v>
+        <v>41.19</v>
       </c>
       <c r="C55" s="1">
-        <v>11.72</v>
+        <v>15.53</v>
       </c>
       <c r="D55" s="1">
         <v>180</v>
@@ -2005,10 +2049,10 @@
         <v>59</v>
       </c>
       <c r="B56" s="1">
-        <v>36.68</v>
+        <v>41.15</v>
       </c>
       <c r="C56" s="1">
-        <v>10.64</v>
+        <v>12.27</v>
       </c>
       <c r="D56" s="1">
         <v>180</v>
@@ -2025,10 +2069,10 @@
         <v>60</v>
       </c>
       <c r="B57" s="1">
-        <v>36.69</v>
+        <v>41.16</v>
       </c>
       <c r="C57" s="1">
-        <v>9.56</v>
+        <v>10.58</v>
       </c>
       <c r="D57" s="1">
         <v>180</v>
@@ -2045,10 +2089,10 @@
         <v>61</v>
       </c>
       <c r="B58" s="1">
-        <v>36.69</v>
+        <v>41.16</v>
       </c>
       <c r="C58" s="1">
-        <v>8.49</v>
+        <v>8.9</v>
       </c>
       <c r="D58" s="1">
         <v>180</v>
@@ -2065,13 +2109,13 @@
         <v>62</v>
       </c>
       <c r="B59" s="1">
-        <v>33.64</v>
+        <v>41.19</v>
       </c>
       <c r="C59" s="1">
-        <v>11.73</v>
+        <v>13.97</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>8</v>
@@ -2088,7 +2132,7 @@
         <v>33.630000000000003</v>
       </c>
       <c r="C60" s="1">
-        <v>10.64</v>
+        <v>12.82</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -2108,7 +2152,7 @@
         <v>33.619999999999997</v>
       </c>
       <c r="C61" s="1">
-        <v>9.57</v>
+        <v>10.95</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -2128,7 +2172,7 @@
         <v>33.61</v>
       </c>
       <c r="C62" s="1">
-        <v>8.49</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -2502,131 +2546,143 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="B81" s="1">
-        <v>22.36</v>
+        <v>44.5</v>
       </c>
       <c r="C81" s="1">
-        <v>42.55</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="D81" s="1">
-        <v>180</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="B82" s="1">
-        <v>22.83</v>
+        <v>24.14</v>
       </c>
       <c r="C82" s="1">
-        <v>4.38</v>
+        <v>42.55</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="B83" s="1">
-        <v>32.770000000000003</v>
+        <v>22.83</v>
       </c>
       <c r="C83" s="1">
-        <v>23.11</v>
+        <v>4.38</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1">
-        <v>26.39</v>
+        <v>32.770000000000003</v>
       </c>
       <c r="C84" s="1">
-        <v>1.85</v>
+        <v>23.11</v>
       </c>
       <c r="D84" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="B85" s="1">
-        <v>37.659999999999997</v>
+        <v>26.39</v>
       </c>
       <c r="C85" s="1">
-        <v>23.46</v>
+        <v>1.85</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="1">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="C86" s="1">
+        <v>23.46</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B87" s="1">
         <v>44.98</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C87" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="D86" s="1">
-        <v>0</v>
-      </c>
-      <c r="E86" s="1" t="s">
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1"/>
@@ -2699,313 +2755,6 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="2"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CPL/CPL.xlsx
+++ b/CPL/CPL.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-3800" yWindow="-21000" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Bottom" localSheetId="0">Sheet1!$A$43:$F$67</definedName>
+    <definedName name="Bottom" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="Bottom_1" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="Top" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="Bottom_2" localSheetId="0">Sheet1!$A$43:$F$67</definedName>
+    <definedName name="Top" localSheetId="0">Sheet1!$A$6:$F$39</definedName>
     <definedName name="Top_1" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="Top_2" localSheetId="0">Sheet1!$A$6:$F$39</definedName>
+    <definedName name="Top_2" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="140000" iterate="1" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Bottom.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="1" name="Bottom.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Bottom.txt" space="1" consecutive="1">
       <textFields count="6">
         <textField/>
@@ -39,8 +40,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="Bottom.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Bottom.txt" space="1" consecutive="1">
+  <connection id="2" name="Bottom.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:CPL:Bottom.txt" space="1" consecutive="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -51,7 +52,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="Top.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="3" name="Top.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Top.txt" space="1" consecutive="1">
       <textFields count="6">
         <textField/>
@@ -63,8 +64,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="Top.txt1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:Eagle:Top.txt" space="1" consecutive="1">
+  <connection id="4" name="Top.txt2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:hunteradams:Documents:eagle:CC1310:CPL:Top.txt" space="1" consecutive="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="108">
   <si>
     <t>FC-135</t>
   </si>
@@ -252,9 +253,6 @@
     <t>TSX-3225</t>
   </si>
   <si>
-    <t>HDMID</t>
-  </si>
-  <si>
     <t>U$6</t>
   </si>
   <si>
@@ -393,13 +391,19 @@
     <t>Bottom</t>
   </si>
   <si>
-    <t>U$9</t>
-  </si>
-  <si>
     <t>10uH</t>
   </si>
   <si>
     <t>ASPI-0315FS</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>CORTEX_DEBUG_SMD</t>
+  </si>
+  <si>
+    <t>SAMTECH_FTSH-105-01</t>
   </si>
 </sst>
 </file>
@@ -456,8 +460,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -484,7 +496,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -494,6 +506,10 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -503,6 +519,10 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,11 +531,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bottom" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Bottom_2" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Top_2" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Top" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -842,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -853,31 +873,40 @@
     <col min="4" max="4" width="4.1640625" customWidth="1"/>
     <col min="5" max="6" width="20.1640625" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.1640625" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="13" max="14" width="6.1640625" customWidth="1"/>
+    <col min="15" max="15" width="4.1640625" customWidth="1"/>
+    <col min="16" max="17" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.33203125" customWidth="1"/>
+    <col min="25" max="25" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1202,79 +1231,79 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1">
-        <v>31.86</v>
+        <v>46.43</v>
       </c>
       <c r="C22" s="1">
-        <v>21.19</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="1">
-        <v>603</v>
+        <v>106</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1">
-        <v>33.770000000000003</v>
+        <v>31.86</v>
       </c>
       <c r="C23" s="1">
-        <v>24.42</v>
+        <v>21.19</v>
       </c>
       <c r="D23" s="1">
         <v>180</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>106</v>
+        <v>30</v>
+      </c>
+      <c r="F23" s="1">
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1">
-        <v>22.48</v>
+        <v>33.770000000000003</v>
       </c>
       <c r="C24" s="1">
-        <v>11.86</v>
+        <v>24.42</v>
       </c>
       <c r="D24" s="1">
         <v>180</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
-        <v>24.74</v>
+        <v>22.48</v>
       </c>
       <c r="C25" s="1">
-        <v>9.99</v>
+        <v>11.86</v>
       </c>
       <c r="D25" s="1">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>34</v>
@@ -1282,79 +1311,79 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1">
-        <v>35.119999999999997</v>
+        <v>24.74</v>
       </c>
       <c r="C26" s="1">
-        <v>19.940000000000001</v>
+        <v>9.99</v>
       </c>
       <c r="D26" s="1">
         <v>270</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1">
-        <v>30.26</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="C27" s="1">
-        <v>15.01</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1">
-        <v>37.81</v>
+        <v>30.26</v>
       </c>
       <c r="C28" s="1">
-        <v>16.04</v>
+        <v>15.01</v>
       </c>
       <c r="D28" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
-        <v>19.899999999999999</v>
+        <v>37.81</v>
       </c>
       <c r="C29" s="1">
-        <v>12.21</v>
+        <v>16.04</v>
       </c>
       <c r="D29" s="1">
         <v>180</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>44</v>
@@ -1362,13 +1391,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1">
-        <v>19.89</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C30" s="1">
-        <v>10.91</v>
+        <v>12.21</v>
       </c>
       <c r="D30" s="1">
         <v>180</v>
@@ -1382,19 +1411,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1">
-        <v>24.75</v>
+        <v>19.89</v>
       </c>
       <c r="C31" s="1">
-        <v>12.48</v>
+        <v>10.91</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>180</v>
+        <v>180</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>44</v>
@@ -1402,13 +1431,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1">
-        <v>24.78</v>
+        <v>24.75</v>
       </c>
       <c r="C32" s="1">
-        <v>11.27</v>
+        <v>12.48</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -1422,19 +1451,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1">
-        <v>16.82</v>
+        <v>24.78</v>
       </c>
       <c r="C33" s="1">
-        <v>10.9</v>
+        <v>11.27</v>
       </c>
       <c r="D33" s="1">
-        <v>180</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>180</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>44</v>
@@ -1442,16 +1471,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1">
-        <v>33.979999999999997</v>
+        <v>16.82</v>
       </c>
       <c r="C34" s="1">
-        <v>19.940000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="D34" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>51</v>
@@ -1462,112 +1491,112 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1">
-        <v>24.96</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="C35" s="1">
-        <v>39.06</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="D35" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1">
-        <v>26.67</v>
+        <v>24.96</v>
       </c>
       <c r="C36" s="1">
-        <v>20.78</v>
+        <v>39.06</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1">
-        <v>14.1</v>
+        <v>26.67</v>
       </c>
       <c r="C37" s="1">
-        <v>20.5</v>
+        <v>20.78</v>
       </c>
       <c r="D37" s="1">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B38" s="1">
-        <v>37.46</v>
+        <v>14.1</v>
       </c>
       <c r="C38" s="1">
-        <v>22.31</v>
+        <v>20.5</v>
       </c>
       <c r="D38" s="1">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B39" s="1">
-        <v>45.87</v>
+        <v>37.46</v>
       </c>
       <c r="C39" s="1">
-        <v>17.05</v>
+        <v>22.31</v>
       </c>
       <c r="D39" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1">
         <v>36.67</v>
@@ -1587,7 +1616,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1">
         <v>36.68</v>
@@ -1607,7 +1636,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1">
         <v>36.69</v>
@@ -1627,7 +1656,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="1">
         <v>36.69</v>
@@ -1647,7 +1676,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="1">
         <v>33.64</v>
@@ -1667,7 +1696,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1">
         <v>33.630000000000003</v>
@@ -1679,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -1687,7 +1716,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" s="1">
         <v>33.619999999999997</v>
@@ -1707,7 +1736,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50" s="1">
         <v>33.61</v>
@@ -1727,7 +1756,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B51" s="1">
         <v>22.19</v>
@@ -1747,7 +1776,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" s="1">
         <v>37.68</v>
@@ -1759,7 +1788,7 @@
         <v>270</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F52" s="1">
         <v>805</v>
@@ -1767,7 +1796,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="1">
         <v>24.96</v>
@@ -1787,7 +1816,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B54" s="1">
         <v>25.72</v>
@@ -1799,15 +1828,15 @@
         <v>270</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55" s="1">
         <v>31.66</v>
@@ -1819,7 +1848,7 @@
         <v>180</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F55" s="1">
         <v>603</v>
@@ -1827,7 +1856,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" s="1">
         <v>26.49</v>
@@ -1839,7 +1868,7 @@
         <v>90</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>34</v>
@@ -1847,7 +1876,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" s="1">
         <v>33.82</v>
@@ -1867,7 +1896,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" s="1">
         <v>32.47</v>
@@ -1887,7 +1916,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" s="1">
         <v>19.399999999999999</v>
@@ -1907,7 +1936,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B60" s="1">
         <v>26.6</v>
@@ -1927,7 +1956,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61" s="1">
         <v>29.7</v>
@@ -1939,7 +1968,7 @@
         <v>180</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>44</v>
@@ -1947,7 +1976,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" s="1">
         <v>22.19</v>
@@ -1967,7 +1996,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B63" s="1">
         <v>33.93</v>
@@ -1987,7 +2016,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B64" s="1">
         <v>34.82</v>
@@ -2007,7 +2036,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65" s="1">
         <v>32.770000000000003</v>
@@ -2019,15 +2048,15 @@
         <v>0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B66" s="1">
         <v>37.659999999999997</v>
@@ -2039,15 +2068,15 @@
         <v>0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67" s="1">
         <v>44.98</v>
@@ -2059,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
